--- a/shared analysis files /thesis metadata feb3.xlsx
+++ b/shared analysis files /thesis metadata feb3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/shared analysis files /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F7EB04-4E74-7846-B48C-4F041067F3C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0063E-E537-DB4B-B52A-7BD0E4BA2C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1340" windowWidth="24000" windowHeight="11160" xr2:uid="{10A247D6-D658-0F47-8BA3-8B88B4069902}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <t>0,1,2,3,4</t>
   </si>
   <si>
-    <t>constant, diurnal, white, red, other</t>
-  </si>
-  <si>
     <t>time_units</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>additional info</t>
+  </si>
+  <si>
+    <t>constant, diurnal, red, white other</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
@@ -931,28 +931,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
